--- a/biology/Histoire de la zoologie et de la botanique/Charles_Pérez/Charles_Pérez.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Pérez/Charles_Pérez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_P%C3%A9rez</t>
+          <t>Charles_Pérez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Pérez est un zoologiste français, né le 19 mai 1873 à Bordeaux et mort le 22 septembre 1952 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_P%C3%A9rez</t>
+          <t>Charles_Pérez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est le zoologiste Jean Pérez (1833-1914), professeur à la faculté des sciences de Bordeaux, son oncle par alliance est aussi zoologiste, Paul Pelseneer (1863-1945), membre de l’Académie de Bruxelles.
 Il étudie à Bordeaux et à Paris, et obtient son baccalauréat de lettres (1890) et de sciences (1891). Il est reçu à l’École polytechnique et à l’École normale supérieure, il entre dans cette dernière en 1895. Il y est préparateur de 1898 à 1902 et obtient l'agrégation de sciences naturelles en 1898. Après une mission dans l’océan Indien (1900-1901), il reçoit son doctorat de sciences (1902) avec une thèse intitulée Contribution à l'étude des métamorphoses.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_P%C3%A9rez</t>
+          <t>Charles_Pérez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Christophe Charle et Eva Telkes (1989). Les Professeurs de la Faculté des sciences de Paris. Dictionnaire biographique (1901-1939), Institut national de recherche pédagogique (Paris) et CNRS Éditions, collection Histoire biographique de l’Enseignement : 270 p.  (ISBN 2-222-04336-0)</t>
         </is>
